--- a/src/Section Properties ITERATION001.xlsx
+++ b/src/Section Properties ITERATION001.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A974V276\Documents\GitHub\structures-calc\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92D0D41-EBED-4E60-A51D-6887B7C022C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2295" windowWidth="30720" windowHeight="12825"/>
+    <workbookView xWindow="0" yWindow="2304" windowWidth="30720" windowHeight="12828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="105">
   <si>
     <t>Name of element</t>
   </si>
@@ -288,12 +289,72 @@
   </si>
   <si>
     <t>Izzi*</t>
+  </si>
+  <si>
+    <t>Top Stringer6</t>
+  </si>
+  <si>
+    <t>Top Stringer7</t>
+  </si>
+  <si>
+    <t>Top Stringer8</t>
+  </si>
+  <si>
+    <t>Top Stringer9</t>
+  </si>
+  <si>
+    <t>Top Stringer10</t>
+  </si>
+  <si>
+    <t>Top Stringer11</t>
+  </si>
+  <si>
+    <t>Top Stringer12</t>
+  </si>
+  <si>
+    <t>Bottom Stringer6</t>
+  </si>
+  <si>
+    <t>Bottom Stringer7</t>
+  </si>
+  <si>
+    <t>Bottom Stringer8</t>
+  </si>
+  <si>
+    <t>Bottom Stringer9</t>
+  </si>
+  <si>
+    <t>Bottom Stringer10</t>
+  </si>
+  <si>
+    <t>Bottom Stringer11</t>
+  </si>
+  <si>
+    <t>Bottom Stringer12</t>
+  </si>
+  <si>
+    <t>Skin Thickness</t>
+  </si>
+  <si>
+    <t>Stringer Width</t>
+  </si>
+  <si>
+    <t>Spar Width</t>
+  </si>
+  <si>
+    <t>Top Skin Stringer Count</t>
+  </si>
+  <si>
+    <t>Bottom Skin Stringer Count</t>
+  </si>
+  <si>
+    <t>Not Required</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -309,7 +370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,6 +395,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -347,13 +414,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -383,13 +451,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>617695</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>23215</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -443,13 +511,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>129541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>49385</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -502,14 +570,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>457675</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>983455</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>53695</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -539,8 +607,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26883360" y="3086100"/>
-          <a:ext cx="5486875" cy="4099915"/>
+          <a:off x="27127200" y="5463540"/>
+          <a:ext cx="5479255" cy="4099915"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -858,47 +926,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AZ30" sqref="AZ30:BB30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.7109375" customWidth="1"/>
-    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.6640625" customWidth="1"/>
+    <col min="30" max="30" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="25" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1105,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1074,30 +1144,30 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K15" si="0">D2-$AH$3</f>
-        <v>0.56979635487546165</v>
+        <f t="shared" ref="K2:K29" si="0">D2-$AH$3</f>
+        <v>0.59222976068920719</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L15" si="1">E2-$AI$3</f>
-        <v>-0.31166592625587453</v>
+        <f t="shared" ref="L2:L29" si="1">E2-$AI$3</f>
+        <v>-0.34261305091703931</v>
       </c>
       <c r="M2">
         <f>C2*K2^2</f>
-        <v>7.6094035788131953E-2</v>
+        <v>8.2203770963905215E-2</v>
       </c>
       <c r="N2">
         <f>C2*L2^2</f>
-        <v>2.2766167872405988E-2</v>
+        <v>2.7511805310628541E-2</v>
       </c>
       <c r="O2">
         <f>C2*K2*L2</f>
-        <v>-4.1621744231128535E-2</v>
+        <v>-4.7556010582874376E-2</v>
       </c>
       <c r="P2">
         <v>255</v>
       </c>
       <c r="Q2">
-        <f t="shared" ref="Q2:Q15" si="2">P2/$AH$7</f>
+        <f t="shared" ref="Q2:Q29" si="2">P2/$AH$7</f>
         <v>0.1275</v>
       </c>
       <c r="R2">
@@ -1113,24 +1183,24 @@
         <v>-5.60302734375E-2</v>
       </c>
       <c r="U2">
-        <f t="shared" ref="U2:U15" si="3">D2-$AH$5</f>
-        <v>0.55631911859611249</v>
+        <f t="shared" ref="U2:U29" si="3">D2-$AH$5</f>
+        <v>0.66339223378477385</v>
       </c>
       <c r="V2">
-        <f t="shared" ref="V2:V15" si="4">E2-$AI$5</f>
-        <v>-0.21897636946224064</v>
+        <f t="shared" ref="V2:V29" si="4">E2-$AI$5</f>
+        <v>-0.37403372639821697</v>
       </c>
       <c r="W2">
         <f>C2*U2^2</f>
-        <v>7.253694415208331E-2</v>
+        <v>0.10314591933889501</v>
       </c>
       <c r="X2">
         <f>C2*V2^2</f>
-        <v>1.1238433683483684E-2</v>
+        <v>3.2789350425781925E-2</v>
       </c>
       <c r="Y2">
         <f>C2*U2*V2</f>
-        <v>-2.8551736137330561E-2</v>
+        <v>-5.8155719359255328E-2</v>
       </c>
       <c r="Z2">
         <v>1.47</v>
@@ -1151,8 +1221,8 @@
         <f>C2*$AX$2</f>
         <v>10.78125</v>
       </c>
-      <c r="AF2" s="1" t="s">
-        <v>61</v>
+      <c r="AF2" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH2" t="s">
         <v>30</v>
@@ -1189,7 +1259,7 @@
       </c>
       <c r="AT2">
         <f>-AI3</f>
-        <v>1.5633340737441255</v>
+        <v>1.5323869490829607</v>
       </c>
       <c r="AU2" t="s">
         <v>62</v>
@@ -1205,18 +1275,18 @@
       </c>
       <c r="AZ2">
         <f>(Q2)*(H2+X2)</f>
-        <v>3.6451821193081671E-2</v>
+        <v>3.9199563077724695E-2</v>
       </c>
       <c r="BA2">
         <f>(Q2)*(I2+W2)</f>
-        <v>9.2581878574179658E-3</v>
+        <v>1.3160832193736458E-2</v>
       </c>
       <c r="BB2">
         <f>(Q2)*(J2+Y2)</f>
-        <v>-3.6403463575096465E-3</v>
+        <v>-7.4148542183050548E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1236,11 +1306,11 @@
         <v>-1.875</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F15" si="5">C3*D3</f>
+        <f t="shared" ref="F3:F29" si="5">C3*D3</f>
         <v>-0.24256522962906288</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G15" si="6">C3*E3</f>
+        <f t="shared" ref="G3:G29" si="6">C3*E3</f>
         <v>-0.45480980555449291</v>
       </c>
       <c r="H3">
@@ -1257,23 +1327,23 @@
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>-0.46145364512453835</v>
+        <v>-0.43902023931079281</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>-0.31166592625587453</v>
+        <v>-0.34261305091703931</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M15" si="7">C3*K3^2</f>
-        <v>5.1651710612609501E-2</v>
+        <f t="shared" ref="M3:M29" si="7">C3*K3^2</f>
+        <v>4.6751724130700008E-2</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N15" si="8">C3*L3^2</f>
-        <v>2.3561731147707529E-2</v>
+        <f t="shared" ref="N3:N29" si="8">C3*L3^2</f>
+        <v>2.8473204790112783E-2</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O15" si="9">C3*K3*L3</f>
-        <v>3.4885580384644552E-2</v>
+        <f t="shared" ref="O3:O29" si="9">C3*K3*L3</f>
+        <v>3.6485221877690134E-2</v>
       </c>
       <c r="P3">
         <v>255</v>
@@ -1283,36 +1353,36 @@
         <v>0.1275</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R15" si="10">Q3*C3</f>
+        <f t="shared" ref="R3:R29" si="10">Q3*C3</f>
         <v>3.0927066777705518E-2</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S15" si="11">R3*D3</f>
+        <f t="shared" ref="S3:S29" si="11">R3*D3</f>
         <v>-3.0927066777705518E-2</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T15" si="12">R3*E3</f>
+        <f t="shared" ref="T3:T29" si="12">R3*E3</f>
         <v>-5.7988250208197846E-2</v>
       </c>
       <c r="U3">
         <f t="shared" si="3"/>
-        <v>-0.47493088140388751</v>
+        <v>-0.36785776621522615</v>
       </c>
       <c r="V3">
         <f t="shared" si="4"/>
-        <v>-0.21897636946224064</v>
+        <v>-0.37403372639821697</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W15" si="13">C3*U3^2</f>
-        <v>5.4712853614152887E-2</v>
+        <f t="shared" ref="W3:W29" si="13">C3*U3^2</f>
+        <v>3.2823765850080643E-2</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X15" si="14">C3*V3^2</f>
-        <v>1.163116052098225E-2</v>
+        <f t="shared" ref="X3:X29" si="14">C3*V3^2</f>
+        <v>3.3935173612448445E-2</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y15" si="15">C3*U3*V3</f>
-        <v>2.5226454030386754E-2</v>
+        <f t="shared" ref="Y3:Y29" si="15">C3*U3*V3</f>
+        <v>3.3374843711047444E-2</v>
       </c>
       <c r="Z3">
         <v>1.47</v>
@@ -1330,35 +1400,35 @@
         <v>5.6</v>
       </c>
       <c r="AE3" s="5">
-        <f t="shared" ref="AE3:AE15" si="16">C3*$AX$2</f>
+        <f t="shared" ref="AE3:AE29" si="16">C3*$AX$2</f>
         <v>11.158000562936893</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>61</v>
+      <c r="AF3" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH3">
-        <f>F16/C16</f>
-        <v>-0.53854635487546165</v>
+        <f>F30/C30</f>
+        <v>-0.56097976068920719</v>
       </c>
       <c r="AI3">
-        <f>G16/C16</f>
-        <v>-1.5633340737441255</v>
+        <f>G30/C30</f>
+        <v>-1.5323869490829607</v>
       </c>
       <c r="AJ3">
-        <f>H16+N16</f>
-        <v>1.0459484620523829</v>
+        <f>H30+N30</f>
+        <v>1.0790555408169558</v>
       </c>
       <c r="AK3">
-        <f>I16+M16</f>
-        <v>0.45041030249982084</v>
+        <f>I30+M30</f>
+        <v>0.46781680918671636</v>
       </c>
       <c r="AL3">
-        <f>J16+O16</f>
-        <v>-0.18033006763243944</v>
+        <f>J30+O30</f>
+        <v>-0.20431446464994504</v>
       </c>
       <c r="AM3">
         <f>(AJ3*AK3)-AL3^2</f>
-        <v>0.43858702989991594</v>
+        <v>0.46305591957504116</v>
       </c>
       <c r="AO3" t="s">
         <v>62</v>
@@ -1377,7 +1447,7 @@
       </c>
       <c r="AT3">
         <f>-1.875-AI3</f>
-        <v>-0.31166592625587453</v>
+        <v>-0.34261305091703931</v>
       </c>
       <c r="AU3" t="s">
         <v>62</v>
@@ -1392,19 +1462,19 @@
         <v>80</v>
       </c>
       <c r="AZ3">
-        <f t="shared" ref="AZ3:AZ15" si="17">(Q3)*(H3+X3)</f>
-        <v>4.0696275603782544E-3</v>
+        <f t="shared" ref="AZ3:AZ29" si="17">(Q3)*(H3+X3)</f>
+        <v>6.913389229540194E-3</v>
       </c>
       <c r="BA3">
-        <f t="shared" ref="BA3:BA15" si="18">(Q3)*(I3+W3)</f>
-        <v>4.321921359133396E-2</v>
+        <f t="shared" ref="BA3:BA29" si="18">(Q3)*(I3+W3)</f>
+        <v>4.0428354901414748E-2</v>
       </c>
       <c r="BB3">
-        <f t="shared" ref="BB3:BB15" si="19">(Q3)*(J3+Y3)</f>
-        <v>-6.4458290713868688E-3</v>
+        <f t="shared" ref="BB3:BB29" si="19">(Q3)*(J3+Y3)</f>
+        <v>-5.4069093871026309E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1444,23 +1514,23 @@
       </c>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>-0.21145364512453835</v>
+        <v>-0.18902023931079281</v>
       </c>
       <c r="L4">
         <f t="shared" si="1"/>
-        <v>1.5008340737441255</v>
+        <v>1.4698869490829607</v>
       </c>
       <c r="M4">
         <f t="shared" si="7"/>
-        <v>8.3836207568351619E-3</v>
+        <v>6.6991220379580092E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="8"/>
-        <v>0.42234429692088504</v>
+        <v>0.40510643307832761</v>
       </c>
       <c r="O4">
         <f t="shared" si="9"/>
-        <v>-5.9504406678807284E-2</v>
+        <v>-5.2094696789151067E-2</v>
       </c>
       <c r="P4">
         <v>155</v>
@@ -1483,23 +1553,23 @@
       </c>
       <c r="U4">
         <f t="shared" si="3"/>
-        <v>-0.22493088140388751</v>
+        <v>-0.11785776621522615</v>
       </c>
       <c r="V4">
         <f t="shared" si="4"/>
-        <v>1.5935236305377594</v>
+        <v>1.438466273601783</v>
       </c>
       <c r="W4">
         <f t="shared" si="13"/>
-        <v>9.4863565142118203E-3</v>
+        <v>2.6044599482330441E-3</v>
       </c>
       <c r="X4">
         <f t="shared" si="14"/>
-        <v>0.4761220427029203</v>
+        <v>0.38797222880433746</v>
       </c>
       <c r="Y4">
         <f t="shared" si="15"/>
-        <v>-6.7206126516521442E-2</v>
+        <v>-3.1787704084246214E-2</v>
       </c>
       <c r="Z4">
         <v>0.63</v>
@@ -1520,8 +1590,8 @@
         <f t="shared" si="16"/>
         <v>8.625</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>61</v>
+      <c r="AF4" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH4" t="s">
         <v>44</v>
@@ -1574,18 +1644,18 @@
       </c>
       <c r="AZ4">
         <f t="shared" si="17"/>
-        <v>3.6918379207913826E-2</v>
+        <v>3.0086768630773652E-2</v>
       </c>
       <c r="BA4">
         <f t="shared" si="18"/>
-        <v>2.5515988798514161E-3</v>
+        <v>2.0182518959880611E-3</v>
       </c>
       <c r="BB4">
         <f t="shared" si="19"/>
-        <v>-5.2084748050304115E-3</v>
+        <v>-2.4635470665290817E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1625,23 +1695,23 @@
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>0.28854635487546165</v>
+        <v>0.31097976068920719</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
-        <v>-2.1241659262558743</v>
+        <v>-2.1551130509170395</v>
       </c>
       <c r="M5">
         <f t="shared" si="7"/>
-        <v>5.2036874319947406E-3</v>
+        <v>6.0442757223947855E-3</v>
       </c>
       <c r="N5">
         <f t="shared" si="8"/>
-        <v>0.2820050551416548</v>
+        <v>0.29028201638955942</v>
       </c>
       <c r="O5">
         <f t="shared" si="9"/>
-        <v>-3.8307520948236952E-2</v>
+        <v>-4.1887283802023008E-2</v>
       </c>
       <c r="P5">
         <v>155</v>
@@ -1664,23 +1734,23 @@
       </c>
       <c r="U5">
         <f t="shared" si="3"/>
-        <v>0.27506911859611249</v>
+        <v>0.38214223378477385</v>
       </c>
       <c r="V5">
         <f t="shared" si="4"/>
-        <v>-2.0314763694622409</v>
+        <v>-2.186533726398217</v>
       </c>
       <c r="W5">
         <f t="shared" si="13"/>
-        <v>4.7289387503276379E-3</v>
+        <v>9.1270429276260473E-3</v>
       </c>
       <c r="X5">
         <f t="shared" si="14"/>
-        <v>0.25793101498021792</v>
+        <v>0.29880810854230455</v>
       </c>
       <c r="Y5">
         <f t="shared" si="15"/>
-        <v>-3.4924775899800573E-2</v>
+        <v>-5.2222930153222512E-2</v>
       </c>
       <c r="Z5">
         <v>0.63</v>
@@ -1701,32 +1771,32 @@
         <f t="shared" si="16"/>
         <v>2.875</v>
       </c>
-      <c r="AF5" s="1" t="s">
-        <v>61</v>
+      <c r="AF5" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH5">
-        <f>S16/R16</f>
-        <v>-0.52506911859611249</v>
+        <f>S30/R30</f>
+        <v>-0.63214223378477385</v>
       </c>
       <c r="AI5">
-        <f>T16/R16</f>
-        <v>-1.6560236305377594</v>
+        <f>T30/R30</f>
+        <v>-1.500966273601783</v>
       </c>
       <c r="AJ5">
-        <f>AZ16</f>
-        <v>9.7435788588486463E-2</v>
+        <f>AZ30</f>
+        <v>0.11688575980995447</v>
       </c>
       <c r="AK5">
-        <f>BA16</f>
-        <v>5.5496404540087065E-2</v>
+        <f>BA30</f>
+        <v>6.4777016011741073E-2</v>
       </c>
       <c r="AL5">
-        <f>BB16</f>
-        <v>-1.800132036616147E-2</v>
+        <f>BB30</f>
+        <v>-3.1424341689118264E-2</v>
       </c>
       <c r="AM5">
         <f>(AJ5*AK5)-AL5^2</f>
-        <v>5.0832884052638642E-3</v>
+        <v>6.5840214841594857E-3</v>
       </c>
       <c r="AO5" t="s">
         <v>62</v>
@@ -1757,18 +1827,18 @@
       </c>
       <c r="AZ5">
         <f t="shared" si="17"/>
-        <v>1.999596062711272E-2</v>
+        <v>2.3163935378174433E-2</v>
       </c>
       <c r="BA5">
         <f t="shared" si="18"/>
-        <v>4.6740421148372527E-4</v>
+        <v>8.08257285224352E-4</v>
       </c>
       <c r="BB5">
         <f t="shared" si="19"/>
-        <v>-2.7066701322345445E-3</v>
+        <v>-4.0472770868747445E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1807,7 +1877,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0.66354635487546165</v>
+        <v>0.68597976068920719</v>
       </c>
       <c r="L6" t="e">
         <f t="shared" si="1"/>
@@ -1815,7 +1885,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="7"/>
-        <v>6.8795900791955014E-3</v>
+        <v>7.3526286261753433E-3</v>
       </c>
       <c r="N6" t="e">
         <f t="shared" si="8"/>
@@ -1846,7 +1916,7 @@
       </c>
       <c r="U6">
         <f t="shared" si="3"/>
-        <v>0.65006911859611249</v>
+        <v>0.75714223378477385</v>
       </c>
       <c r="V6" t="e">
         <f t="shared" si="4"/>
@@ -1854,7 +1924,7 @@
       </c>
       <c r="W6">
         <f t="shared" si="13"/>
-        <v>6.602966546130103E-3</v>
+        <v>8.9572556590718309E-3</v>
       </c>
       <c r="X6" t="e">
         <f t="shared" si="14"/>
@@ -1883,8 +1953,8 @@
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF6" s="1" t="s">
-        <v>61</v>
+      <c r="AF6" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH6" t="s">
         <v>39</v>
@@ -1922,14 +1992,14 @@
       </c>
       <c r="BA6">
         <f t="shared" si="18"/>
-        <v>3.7421710529905909E-3</v>
+        <v>5.0723444018026679E-3</v>
       </c>
       <c r="BB6" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1937,11 +2007,11 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C15" si="20">0.125*0.125</f>
+        <f t="shared" ref="C7:C29" si="20">0.125*0.125</f>
         <v>1.5625E-2</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D10" si="21">(1/16)+(1/8)/2</f>
+        <f t="shared" ref="D7:D17" si="21">(1/16)+(1/8)/2</f>
         <v>0.125</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1956,7 +2026,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="H7">
-        <f t="shared" ref="H7:I15" si="22">((1/8)^4)/12</f>
+        <f t="shared" ref="H7:I29" si="22">((1/8)^4)/12</f>
         <v>2.0345052083333332E-5</v>
       </c>
       <c r="I7">
@@ -1968,7 +2038,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>0.66354635487546165</v>
+        <v>0.68597976068920719</v>
       </c>
       <c r="L7" t="e">
         <f t="shared" si="1"/>
@@ -1976,7 +2046,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="7"/>
-        <v>6.8795900791955014E-3</v>
+        <v>7.3526286261753433E-3</v>
       </c>
       <c r="N7" t="e">
         <f t="shared" si="8"/>
@@ -2007,7 +2077,7 @@
       </c>
       <c r="U7">
         <f t="shared" si="3"/>
-        <v>0.65006911859611249</v>
+        <v>0.75714223378477385</v>
       </c>
       <c r="V7" t="e">
         <f t="shared" si="4"/>
@@ -2015,7 +2085,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="13"/>
-        <v>6.602966546130103E-3</v>
+        <v>8.9572556590718309E-3</v>
       </c>
       <c r="X7" t="e">
         <f t="shared" si="14"/>
@@ -2044,8 +2114,8 @@
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF7" s="1" t="s">
-        <v>61</v>
+      <c r="AF7" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH7">
         <v>2000</v>
@@ -2083,14 +2153,14 @@
       </c>
       <c r="BA7">
         <f t="shared" si="18"/>
-        <v>3.7421710529905909E-3</v>
+        <v>5.0723444018026679E-3</v>
       </c>
       <c r="BB7" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2129,7 +2199,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>0.66354635487546165</v>
+        <v>0.68597976068920719</v>
       </c>
       <c r="L8" t="e">
         <f t="shared" si="1"/>
@@ -2137,7 +2207,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="7"/>
-        <v>6.8795900791955014E-3</v>
+        <v>7.3526286261753433E-3</v>
       </c>
       <c r="N8" t="e">
         <f t="shared" si="8"/>
@@ -2168,7 +2238,7 @@
       </c>
       <c r="U8">
         <f t="shared" si="3"/>
-        <v>0.65006911859611249</v>
+        <v>0.75714223378477385</v>
       </c>
       <c r="V8" t="e">
         <f t="shared" si="4"/>
@@ -2176,7 +2246,7 @@
       </c>
       <c r="W8">
         <f t="shared" si="13"/>
-        <v>6.602966546130103E-3</v>
+        <v>8.9572556590718309E-3</v>
       </c>
       <c r="X8" t="e">
         <f t="shared" si="14"/>
@@ -2205,17 +2275,17 @@
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG8" s="7" t="s">
+      <c r="AF8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
-      <c r="AL8" s="7"/>
+      <c r="AH8" s="8"/>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AK8" s="8"/>
+      <c r="AL8" s="8"/>
       <c r="AO8" t="s">
         <v>62</v>
       </c>
@@ -2249,14 +2319,14 @@
       </c>
       <c r="BA8">
         <f t="shared" si="18"/>
-        <v>3.7421710529905909E-3</v>
+        <v>5.0723444018026679E-3</v>
       </c>
       <c r="BB8" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2295,7 +2365,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>0.66354635487546165</v>
+        <v>0.68597976068920719</v>
       </c>
       <c r="L9" t="e">
         <f t="shared" si="1"/>
@@ -2303,7 +2373,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>6.8795900791955014E-3</v>
+        <v>7.3526286261753433E-3</v>
       </c>
       <c r="N9" t="e">
         <f t="shared" si="8"/>
@@ -2334,7 +2404,7 @@
       </c>
       <c r="U9">
         <f t="shared" si="3"/>
-        <v>0.65006911859611249</v>
+        <v>0.75714223378477385</v>
       </c>
       <c r="V9" t="e">
         <f t="shared" si="4"/>
@@ -2342,7 +2412,7 @@
       </c>
       <c r="W9">
         <f t="shared" si="13"/>
-        <v>6.602966546130103E-3</v>
+        <v>8.9572556590718309E-3</v>
       </c>
       <c r="X9" t="e">
         <f t="shared" si="14"/>
@@ -2371,8 +2441,8 @@
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF9" s="1" t="s">
-        <v>61</v>
+      <c r="AF9" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH9" t="s">
         <v>64</v>
@@ -2419,14 +2489,14 @@
       </c>
       <c r="BA9">
         <f t="shared" si="18"/>
-        <v>3.7421710529905909E-3</v>
+        <v>5.0723444018026679E-3</v>
       </c>
       <c r="BB9" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2465,7 +2535,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>0.66354635487546165</v>
+        <v>0.68597976068920719</v>
       </c>
       <c r="L10" t="e">
         <f t="shared" si="1"/>
@@ -2473,7 +2543,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="7"/>
-        <v>6.8795900791955014E-3</v>
+        <v>7.3526286261753433E-3</v>
       </c>
       <c r="N10" t="e">
         <f t="shared" si="8"/>
@@ -2504,7 +2574,7 @@
       </c>
       <c r="U10">
         <f t="shared" si="3"/>
-        <v>0.65006911859611249</v>
+        <v>0.75714223378477385</v>
       </c>
       <c r="V10" t="e">
         <f t="shared" si="4"/>
@@ -2512,7 +2582,7 @@
       </c>
       <c r="W10">
         <f t="shared" si="13"/>
-        <v>6.602966546130103E-3</v>
+        <v>8.9572556590718309E-3</v>
       </c>
       <c r="X10" t="e">
         <f t="shared" si="14"/>
@@ -2541,8 +2611,8 @@
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF10" s="1" t="s">
-        <v>61</v>
+      <c r="AF10" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH10">
         <f>1/16</f>
@@ -2591,16 +2661,16 @@
       </c>
       <c r="BA10">
         <f t="shared" si="18"/>
-        <v>3.7421710529905909E-3</v>
+        <v>5.0723444018026679E-3</v>
       </c>
       <c r="BB10" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2609,15 +2679,16 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>29</v>
+      <c r="D11">
+        <f t="shared" si="21"/>
+        <v>0.125</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="e">
+      <c r="F11">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="G11" t="e">
         <f t="shared" si="6"/>
@@ -2634,17 +2705,17 @@
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11" t="e">
+      <c r="K11">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0.68597976068920719</v>
       </c>
       <c r="L11" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M11" t="e">
+      <c r="M11">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <v>7.3526286261753433E-3</v>
       </c>
       <c r="N11" t="e">
         <f t="shared" si="8"/>
@@ -2665,25 +2736,25 @@
         <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
-      <c r="S11" t="e">
+      <c r="S11">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>1.1035156249999999E-3</v>
       </c>
       <c r="T11" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U11" t="e">
+      <c r="U11">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>0.75714223378477385</v>
       </c>
       <c r="V11" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W11" t="e">
+      <c r="W11">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>8.9572556590718309E-3</v>
       </c>
       <c r="X11" t="e">
         <f t="shared" si="14"/>
@@ -2712,8 +2783,8 @@
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF11" s="1" t="s">
-        <v>61</v>
+      <c r="AF11" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH11" t="s">
         <v>65</v>
@@ -2758,18 +2829,18 @@
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BA11" t="e">
+      <c r="BA11">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
+        <v>5.0723444018026679E-3</v>
       </c>
       <c r="BB11" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2778,15 +2849,16 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>29</v>
+      <c r="D12">
+        <f t="shared" si="21"/>
+        <v>0.125</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F12" t="e">
+      <c r="F12">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="G12" t="e">
         <f t="shared" si="6"/>
@@ -2803,17 +2875,17 @@
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12" t="e">
+      <c r="K12">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0.68597976068920719</v>
       </c>
       <c r="L12" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M12" t="e">
+      <c r="M12">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <v>7.3526286261753433E-3</v>
       </c>
       <c r="N12" t="e">
         <f t="shared" si="8"/>
@@ -2834,25 +2906,25 @@
         <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
-      <c r="S12" t="e">
+      <c r="S12">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>1.1035156249999999E-3</v>
       </c>
       <c r="T12" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U12" t="e">
+      <c r="U12">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>0.75714223378477385</v>
       </c>
       <c r="V12" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W12" t="e">
+      <c r="W12">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>8.9572556590718309E-3</v>
       </c>
       <c r="X12" t="e">
         <f t="shared" si="14"/>
@@ -2881,8 +2953,8 @@
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF12" s="1" t="s">
-        <v>61</v>
+      <c r="AF12" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AH12">
         <f>1/16</f>
@@ -2929,18 +3001,18 @@
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BA12" t="e">
+      <c r="BA12">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
+        <v>5.0723444018026679E-3</v>
       </c>
       <c r="BB12" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2949,15 +3021,16 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
+      <c r="D13">
+        <f t="shared" si="21"/>
+        <v>0.125</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F13" t="e">
+      <c r="F13">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="G13" t="e">
         <f t="shared" si="6"/>
@@ -2974,17 +3047,17 @@
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13" t="e">
+      <c r="K13">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0.68597976068920719</v>
       </c>
       <c r="L13" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M13" t="e">
+      <c r="M13">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <v>7.3526286261753433E-3</v>
       </c>
       <c r="N13" t="e">
         <f t="shared" si="8"/>
@@ -3005,25 +3078,25 @@
         <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
-      <c r="S13" t="e">
+      <c r="S13">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>1.1035156249999999E-3</v>
       </c>
       <c r="T13" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U13" t="e">
+      <c r="U13">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>0.75714223378477385</v>
       </c>
       <c r="V13" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W13" t="e">
+      <c r="W13">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>8.9572556590718309E-3</v>
       </c>
       <c r="X13" t="e">
         <f t="shared" si="14"/>
@@ -3052,8 +3125,8 @@
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF13" s="1" t="s">
-        <v>61</v>
+      <c r="AF13" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="AO13" t="s">
         <v>62</v>
@@ -3086,18 +3159,18 @@
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BA13" t="e">
+      <c r="BA13">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
+        <v>5.0723444018026679E-3</v>
       </c>
       <c r="BB13" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3106,15 +3179,16 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>29</v>
+      <c r="D14">
+        <f t="shared" si="21"/>
+        <v>0.125</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F14" t="e">
+      <c r="F14">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="G14" t="e">
         <f t="shared" si="6"/>
@@ -3131,17 +3205,17 @@
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" t="e">
+      <c r="K14">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0.68597976068920719</v>
       </c>
       <c r="L14" t="e">
         <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="M14" t="e">
+      <c r="M14">
         <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <v>7.3526286261753433E-3</v>
       </c>
       <c r="N14" t="e">
         <f t="shared" si="8"/>
@@ -3162,25 +3236,25 @@
         <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
-      <c r="S14" t="e">
+      <c r="S14">
         <f t="shared" si="11"/>
-        <v>#VALUE!</v>
+        <v>1.1035156249999999E-3</v>
       </c>
       <c r="T14" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U14" t="e">
+      <c r="U14">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>0.75714223378477385</v>
       </c>
       <c r="V14" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W14" t="e">
+      <c r="W14">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
+        <v>8.9572556590718309E-3</v>
       </c>
       <c r="X14" t="e">
         <f t="shared" si="14"/>
@@ -3209,8 +3283,23 @@
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF14" s="1" t="s">
-        <v>61</v>
+      <c r="AF14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH14" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL14" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="AO14" t="s">
         <v>62</v>
@@ -3243,18 +3332,18 @@
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BA14" t="e">
+      <c r="BA14">
         <f t="shared" si="18"/>
-        <v>#VALUE!</v>
+        <v>5.0723444018026679E-3</v>
       </c>
       <c r="BB14" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3263,18 +3352,19 @@
         <f t="shared" si="20"/>
         <v>1.5625E-2</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
+      <c r="D15">
+        <f t="shared" si="21"/>
+        <v>0.125</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="e">
+      <c r="F15">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>1.953125E-3</v>
       </c>
       <c r="G15" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G15:G28" si="23">C15*E15</f>
         <v>#VALUE!</v>
       </c>
       <c r="H15">
@@ -3288,247 +3378,2469 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+      <c r="K15">
+        <f t="shared" ref="K15:K28" si="24">D15-$AH$3</f>
+        <v>0.68597976068920719</v>
       </c>
       <c r="L15" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M15" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
+        <f t="shared" ref="L15:L28" si="25">E15-$AI$3</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M15">
+        <f t="shared" ref="M15:M28" si="26">C15*K15^2</f>
+        <v>7.3526286261753433E-3</v>
       </c>
       <c r="N15" t="e">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="N15:N28" si="27">C15*L15^2</f>
         <v>#VALUE!</v>
       </c>
       <c r="O15" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="O15:O28" si="28">C15*K15*L15</f>
         <v>#VALUE!</v>
       </c>
       <c r="P15">
         <v>1130</v>
       </c>
       <c r="Q15">
+        <f t="shared" ref="Q15:Q28" si="29">P15/$AH$7</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R15">
+        <f t="shared" ref="R15:R28" si="30">Q15*C15</f>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S15">
+        <f t="shared" ref="S15:S28" si="31">R15*D15</f>
+        <v>1.1035156249999999E-3</v>
+      </c>
+      <c r="T15" t="e">
+        <f t="shared" ref="T15:T28" si="32">R15*E15</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U15">
+        <f t="shared" ref="U15:U28" si="33">D15-$AH$5</f>
+        <v>0.75714223378477385</v>
+      </c>
+      <c r="V15" t="e">
+        <f t="shared" ref="V15:V28" si="34">E15-$AI$5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W15">
+        <f t="shared" ref="W15:W28" si="35">C15*U15^2</f>
+        <v>8.9572556590718309E-3</v>
+      </c>
+      <c r="X15" t="e">
+        <f t="shared" ref="X15:X28" si="36">C15*V15^2</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y15" t="e">
+        <f t="shared" ref="Y15:Y28" si="37">C15*U15*V15</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z15">
+        <v>7.8</v>
+      </c>
+      <c r="AA15">
+        <v>7.8</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE15" s="5">
+        <f t="shared" ref="AE15:AE28" si="38">C15*$AX$2</f>
+        <v>0.71875</v>
+      </c>
+      <c r="AF15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH15">
+        <f>0.0625</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="AI15">
+        <f>0.125</f>
+        <v>0.125</v>
+      </c>
+      <c r="AJ15">
+        <f>0.125</f>
+        <v>0.125</v>
+      </c>
+      <c r="AK15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="1">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ15" t="e">
+        <f t="shared" ref="AZ15:AZ28" si="39">(Q15)*(H15+X15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" ref="BA15:BA28" si="40">(Q15)*(I15+W15)</f>
+        <v>5.0723444018026679E-3</v>
+      </c>
+      <c r="BB15" t="e">
+        <f t="shared" ref="BB15:BB28" si="41">(Q15)*(J15+Y15)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="21"/>
+        <v>0.125</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="5"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G16" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="24"/>
+        <v>0.68597976068920719</v>
+      </c>
+      <c r="L16" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="26"/>
+        <v>7.3526286261753433E-3</v>
+      </c>
+      <c r="N16" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O16" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P16">
+        <v>1130</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="31"/>
+        <v>1.1035156249999999E-3</v>
+      </c>
+      <c r="T16" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="33"/>
+        <v>0.75714223378477385</v>
+      </c>
+      <c r="V16" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="35"/>
+        <v>8.9572556590718309E-3</v>
+      </c>
+      <c r="X16" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y16" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z16">
+        <v>7.8</v>
+      </c>
+      <c r="AA16">
+        <v>7.8</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE16" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ16" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" si="40"/>
+        <v>5.0723444018026679E-3</v>
+      </c>
+      <c r="BB16" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="21"/>
+        <v>0.125</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="G17" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="24"/>
+        <v>0.68597976068920719</v>
+      </c>
+      <c r="L17" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="26"/>
+        <v>7.3526286261753433E-3</v>
+      </c>
+      <c r="N17" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O17" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P17">
+        <v>1130</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="31"/>
+        <v>1.1035156249999999E-3</v>
+      </c>
+      <c r="T17" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="33"/>
+        <v>0.75714223378477385</v>
+      </c>
+      <c r="V17" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="35"/>
+        <v>8.9572556590718309E-3</v>
+      </c>
+      <c r="X17" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y17" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z17">
+        <v>7.8</v>
+      </c>
+      <c r="AA17">
+        <v>7.8</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE17" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ17" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA17">
+        <f t="shared" si="40"/>
+        <v>5.0723444018026679E-3</v>
+      </c>
+      <c r="BB17" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D18">
+        <f>-1.6046754518</f>
+        <v>-1.6046754517999999</v>
+      </c>
+      <c r="E18">
+        <f>-0.092597515</f>
+        <v>-9.2597515000000005E-2</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>-2.5073053934374999E-2</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="23"/>
+        <v>-1.4468361718750001E-3</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="24"/>
+        <v>-1.0436956911107926</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="25"/>
+        <v>1.4397894340829607</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="26"/>
+        <v>1.702032336942555E-2</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="27"/>
+        <v>3.2390525226514567E-2</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="28"/>
+        <v>-2.3479719194675511E-2</v>
+      </c>
+      <c r="P18">
+        <v>1130</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="31"/>
+        <v>-1.4166275472921873E-2</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="32"/>
+        <v>-8.1746243710937498E-4</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="33"/>
+        <v>-0.97253321801522608</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="34"/>
+        <v>1.408368758601783</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="35"/>
+        <v>1.4778450939735175E-2</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="36"/>
+        <v>3.0992227503211366E-2</v>
+      </c>
+      <c r="Y18">
+        <f t="shared" si="37"/>
+        <v>-2.1401334389923456E-2</v>
+      </c>
+      <c r="Z18">
+        <v>7.8</v>
+      </c>
+      <c r="AA18">
+        <v>7.8</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE18" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ18">
+        <f t="shared" si="39"/>
+        <v>1.7522103493741503E-2</v>
+      </c>
+      <c r="BA18">
+        <f t="shared" si="40"/>
+        <v>8.3613197353774576E-3</v>
+      </c>
+      <c r="BB18">
+        <f t="shared" si="41"/>
+        <v>-1.2091753930306752E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G19" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L19" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M19" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N19" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O19" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P19">
+        <v>1130</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S19" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T19" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U19" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V19" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W19" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X19" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y19" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z19">
+        <v>7.8</v>
+      </c>
+      <c r="AA19">
+        <v>7.8</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD19" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE19" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ19" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA19" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB19" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G20" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L20" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M20" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N20" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O20" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P20">
+        <v>1130</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S20" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T20" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U20" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V20" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W20" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X20" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y20" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z20">
+        <v>7.8</v>
+      </c>
+      <c r="AA20">
+        <v>7.8</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE20" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ20" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA20" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB20" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G21" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L21" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M21" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N21" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O21" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P21">
+        <v>1130</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S21" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T21" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U21" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V21" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W21" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X21" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y21" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z21">
+        <v>7.8</v>
+      </c>
+      <c r="AA21">
+        <v>7.8</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE21" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ21" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA21" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB21" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G22" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L22" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M22" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N22" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O22" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P22">
+        <v>1130</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S22" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T22" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U22" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V22" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W22" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X22" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y22" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z22">
+        <v>7.8</v>
+      </c>
+      <c r="AA22">
+        <v>7.8</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE22" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ22" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA22" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB22" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G23" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L23" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M23" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N23" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O23" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P23">
+        <v>1130</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S23" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T23" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U23" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V23" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W23" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X23" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y23" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z23">
+        <v>7.8</v>
+      </c>
+      <c r="AA23">
+        <v>7.8</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE23" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ23" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA23" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB23" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G24" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L24" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M24" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N24" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O24" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P24">
+        <v>1130</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S24" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T24" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U24" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V24" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W24" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X24" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y24" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z24">
+        <v>7.8</v>
+      </c>
+      <c r="AA24">
+        <v>7.8</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE24" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ24" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA24" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB24" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G25" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L25" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M25" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N25" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O25" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P25">
+        <v>1130</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S25" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T25" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U25" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V25" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W25" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X25" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y25" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z25">
+        <v>7.8</v>
+      </c>
+      <c r="AA25">
+        <v>7.8</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE25" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ25" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA25" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB25" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G26" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L26" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M26" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N26" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O26" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P26">
+        <v>1130</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S26" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T26" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U26" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V26" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W26" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X26" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y26" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z26">
+        <v>7.8</v>
+      </c>
+      <c r="AA26">
+        <v>7.8</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE26" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ26" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA26" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB26" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G27" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L27" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M27" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N27" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O27" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P27">
+        <v>1130</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S27" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T27" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U27" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V27" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W27" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X27" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y27" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z27">
+        <v>7.8</v>
+      </c>
+      <c r="AA27">
+        <v>7.8</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE27" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ27" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA27" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB27" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G28" t="e">
+        <f t="shared" si="23"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="e">
+        <f t="shared" si="24"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L28" t="e">
+        <f t="shared" si="25"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M28" t="e">
+        <f t="shared" si="26"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N28" t="e">
+        <f t="shared" si="27"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O28" t="e">
+        <f t="shared" si="28"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P28">
+        <v>1130</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="29"/>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="30"/>
+        <v>8.8281249999999992E-3</v>
+      </c>
+      <c r="S28" t="e">
+        <f t="shared" si="31"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T28" t="e">
+        <f t="shared" si="32"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U28" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="V28" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="W28" t="e">
+        <f t="shared" si="35"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="X28" t="e">
+        <f t="shared" si="36"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y28" t="e">
+        <f t="shared" si="37"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z28">
+        <v>7.8</v>
+      </c>
+      <c r="AA28">
+        <v>7.8</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE28" s="5">
+        <f t="shared" si="38"/>
+        <v>0.71875</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ28" t="e">
+        <f t="shared" si="39"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BA28" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="BB28" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="20"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G29" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="22"/>
+        <v>2.0345052083333332E-5</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L29" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M29" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="N29" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O29" t="e">
+        <f t="shared" si="9"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P29">
+        <v>1130</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="2"/>
         <v>0.56499999999999995</v>
       </c>
-      <c r="R15">
+      <c r="R29">
         <f t="shared" si="10"/>
         <v>8.8281249999999992E-3</v>
       </c>
-      <c r="S15" t="e">
+      <c r="S29" t="e">
         <f t="shared" si="11"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T15" t="e">
+      <c r="T29" t="e">
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="U15" t="e">
+      <c r="U29" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="V15" t="e">
+      <c r="V29" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="W15" t="e">
+      <c r="W29" t="e">
         <f t="shared" si="13"/>
         <v>#VALUE!</v>
       </c>
-      <c r="X15" t="e">
+      <c r="X29" t="e">
         <f t="shared" si="14"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Y15" t="e">
+      <c r="Y29" t="e">
         <f t="shared" si="15"/>
         <v>#VALUE!</v>
       </c>
-      <c r="Z15">
+      <c r="Z29">
         <v>7.8</v>
       </c>
-      <c r="AA15">
+      <c r="AA29">
         <v>7.8</v>
       </c>
-      <c r="AB15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC15" s="1" t="s">
+      <c r="AB29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AD29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AE15" s="5">
+      <c r="AE29" s="5">
         <f t="shared" si="16"/>
         <v>0.71875</v>
       </c>
-      <c r="AF15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>62</v>
-      </c>
-      <c r="AZ15" t="e">
+      <c r="AF29" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AZ29" t="e">
         <f t="shared" si="17"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BA15" t="e">
+      <c r="BA29" t="e">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
-      <c r="BB15" t="e">
+      <c r="BB29" t="e">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2">
-        <f>SUM(C2:C5)</f>
-        <v>0.72694022962906291</v>
-      </c>
-      <c r="F16" s="2">
-        <f>SUM(F2:F5)</f>
-        <v>-0.39149101087906291</v>
-      </c>
-      <c r="G16" s="2">
-        <f>SUM(G2:G5)</f>
-        <v>-1.1364504305544929</v>
-      </c>
-      <c r="H16" s="2">
-        <f>SUM(H2:H5)</f>
-        <v>0.29527121096972953</v>
-      </c>
-      <c r="I16" s="2">
-        <f>SUM(I2:I5)</f>
-        <v>0.30907724791024949</v>
-      </c>
-      <c r="J16" s="2">
-        <f>SUM(J2:J5)</f>
+      <c r="C30" s="2">
+        <f>SUM(C2:C5,C18)</f>
+        <v>0.74256522962906291</v>
+      </c>
+      <c r="F30" s="2">
+        <f>SUM(F2:F5,F18)</f>
+        <v>-0.41656406481343788</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" ref="G30:J30" si="42">SUM(G2:G5,G18)</f>
+        <v>-1.1378972667263678</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="42"/>
+        <v>0.29529155602181284</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="42"/>
+        <v>0.3090975929623328</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="42"/>
         <v>-7.5781976158911218E-2</v>
       </c>
-      <c r="M16" s="2">
-        <f>SUM(M2:M5)</f>
-        <v>0.14133305458957135</v>
-      </c>
-      <c r="N16" s="2">
-        <f>SUM(N2:N5)</f>
-        <v>0.75067725108265337</v>
-      </c>
-      <c r="O16" s="2">
-        <f>SUM(O2:O5)</f>
-        <v>-0.10454809147352823</v>
-      </c>
-      <c r="R16" s="2">
-        <f>SUM(R2:R5)</f>
-        <v>8.0184879277705512E-2</v>
-      </c>
-      <c r="S16" s="2">
-        <f>SUM(S2:S5)</f>
-        <v>-4.2102603887080516E-2</v>
-      </c>
-      <c r="T16" s="2">
-        <f>SUM(T2:T5)</f>
-        <v>-0.13278805489569784</v>
-      </c>
-      <c r="W16" s="2">
-        <f>SUM(W2:W5)</f>
-        <v>0.14146509303077565</v>
-      </c>
-      <c r="X16" s="2">
-        <f>SUM(X2:X5)</f>
-        <v>0.75692265188760421</v>
-      </c>
-      <c r="Y16" s="2">
-        <f>SUM(Y2:Y5)</f>
-        <v>-0.10545618452326581</v>
-      </c>
-      <c r="AZ16" s="2">
-        <f>SUM(AZ2:AZ5)</f>
-        <v>9.7435788588486463E-2</v>
-      </c>
-      <c r="BA16" s="2">
-        <f t="shared" ref="BA16:BB16" si="23">SUM(BA2:BA5)</f>
-        <v>5.5496404540087065E-2</v>
-      </c>
-      <c r="BB16" s="2">
-        <f t="shared" si="23"/>
-        <v>-1.800132036616147E-2</v>
+      <c r="M30" s="2">
+        <f>SUM(M2:M5,M18)</f>
+        <v>0.15871921622438356</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" ref="N30:O30" si="43">SUM(N2:N5,N18)</f>
+        <v>0.78376398479514287</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="43"/>
+        <v>-0.12853248849103383</v>
+      </c>
+      <c r="R30" s="2">
+        <f>SUM(R2:R5,R18)</f>
+        <v>8.9013004277705504E-2</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" ref="S30:T30" si="44">SUM(S2:S5,S18)</f>
+        <v>-5.626887936000239E-2</v>
+      </c>
+      <c r="T30" s="2">
+        <f t="shared" si="44"/>
+        <v>-0.13360551733280721</v>
+      </c>
+      <c r="W30" s="2">
+        <f>SUM(W2:W5,W18)</f>
+        <v>0.16247963900456991</v>
+      </c>
+      <c r="X30" s="2">
+        <f t="shared" ref="X30:Y30" si="45">SUM(X2:X5,X18)</f>
+        <v>0.78449708888808378</v>
+      </c>
+      <c r="Y30" s="2">
+        <f t="shared" si="45"/>
+        <v>-0.13019284427560007</v>
+      </c>
+      <c r="AZ30" s="2">
+        <f>SUM(AZ2:AZ5,AZ18)</f>
+        <v>0.11688575980995447</v>
+      </c>
+      <c r="BA30" s="2">
+        <f t="shared" ref="BA30:BB30" si="46">SUM(BA2:BA5,BA18)</f>
+        <v>6.4777016011741073E-2</v>
+      </c>
+      <c r="BB30" s="2">
+        <f t="shared" si="46"/>
+        <v>-3.1424341689118264E-2</v>
       </c>
     </row>
-    <row r="21" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q21" s="1"/>
-      <c r="R21" s="4" t="s">
+    <row r="35" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q35" s="1"/>
+      <c r="R35" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
     </row>
-    <row r="22" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q22" s="2"/>
-      <c r="R22" s="3" t="s">
+    <row r="36" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q36" s="2"/>
+      <c r="R36" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q23" s="6" t="s">
+    <row r="37" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
     </row>
-    <row r="24" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
+    <row r="38" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
     </row>
-    <row r="25" spans="17:22" x14ac:dyDescent="0.25">
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
+    <row r="39" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="Q23:V25"/>
+    <mergeCell ref="Q37:V39"/>
     <mergeCell ref="AG8:AL8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/Section Properties ITERATION001.xlsx
+++ b/src/Section Properties ITERATION001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMAC_PC\Documents\GitHub\structures-calc\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y544q894\Documents\GitHub\structures-calc\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92D0D41-EBED-4E60-A51D-6887B7C022C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B75DE688-6E60-477B-9EEE-CC67EAB4B86D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2304" windowWidth="30720" windowHeight="12828" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cross Section Properties" sheetId="1" r:id="rId1"/>
@@ -929,46 +929,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BB39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AZ30" sqref="AZ30:BB30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.6640625" customWidth="1"/>
-    <col min="30" max="30" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="35" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.7109375" customWidth="1"/>
+    <col min="30" max="30" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="35" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="20" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="23" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="25" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>-7.4148542183050548E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>-5.4069093871026309E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>-2.4635470665290817E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>-4.0472770868747445E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -2326,7 +2326,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>85</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -3010,7 +3010,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>87</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -3341,7 +3341,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>91</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>-1.2091753930306752E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -4465,7 +4465,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>96</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>98</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>-3.1424341689118264E-2</v>
       </c>
     </row>
-    <row r="35" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q35" s="1"/>
       <c r="R35" s="4" t="s">
         <v>54</v>
@@ -5806,13 +5806,13 @@
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
     </row>
-    <row r="36" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q36" s="2"/>
       <c r="R36" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q37" s="7" t="s">
         <v>36</v>
       </c>
@@ -5822,7 +5822,7 @@
       <c r="U37" s="7"/>
       <c r="V37" s="7"/>
     </row>
-    <row r="38" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
@@ -5830,7 +5830,7 @@
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
     </row>
-    <row r="39" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
